--- a/data/en/outcome_table.xlsx
+++ b/data/en/outcome_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpietersz/Documents/GitHub/kenniscentrumongelijkheid/data/en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidpietersz/Documents/GitHub/kansenkloof_NL/data/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E5D860-987B-A548-8ECF-F6A8955CD222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D742EE63-D015-B340-9EE9-4986DEFCD36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="560">
   <si>
     <t>prefix_postfix</t>
   </si>
@@ -573,24 +573,9 @@
     <t>geografie</t>
   </si>
   <si>
-    <t>Nederland</t>
-  </si>
-  <si>
-    <t>The Netherlands</t>
-  </si>
-  <si>
-    <t>Metropool Amsterdam</t>
-  </si>
-  <si>
-    <t>Amsterdam Metropolitan Aera</t>
-  </si>
-  <si>
     <t>Amsterdam</t>
   </si>
   <si>
-    <t>Municipality</t>
-  </si>
-  <si>
     <t>Almere</t>
   </si>
   <si>
@@ -657,93 +642,6 @@
     <t>Waterland</t>
   </si>
   <si>
-    <t>Zuidoost</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Noord</t>
-  </si>
-  <si>
-    <t>Oost</t>
-  </si>
-  <si>
-    <t>Nieuw-West</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>Centrum</t>
-  </si>
-  <si>
-    <t>Zuid</t>
-  </si>
-  <si>
-    <t>Gaasperdam, Driemond</t>
-  </si>
-  <si>
-    <t>Neighborhood</t>
-  </si>
-  <si>
-    <t>Noord-Oost</t>
-  </si>
-  <si>
-    <t>Bijlmer-Centrum, Amstel III</t>
-  </si>
-  <si>
-    <t>Indische Buurt, Oostelijk Havengebied</t>
-  </si>
-  <si>
-    <t>De Pijp, Rivierenbuurt</t>
-  </si>
-  <si>
-    <t>De Aker, Sloten, Nieuw-Sloten</t>
-  </si>
-  <si>
-    <t>Geuzenveld, Slotermeer, Sloterdijken</t>
-  </si>
-  <si>
-    <t>Osdorp</t>
-  </si>
-  <si>
-    <t>Bijlmer-Oost</t>
-  </si>
-  <si>
-    <t>Oud-Oost</t>
-  </si>
-  <si>
-    <t>Slotervaart</t>
-  </si>
-  <si>
-    <t>Noord-West</t>
-  </si>
-  <si>
-    <t>Bos en Lommer</t>
-  </si>
-  <si>
-    <t>IJburg, Zeeburgereiland</t>
-  </si>
-  <si>
-    <t>Oud West, De Baarsjes</t>
-  </si>
-  <si>
-    <t>Oud-Zuid</t>
-  </si>
-  <si>
-    <t>Oud-Noord</t>
-  </si>
-  <si>
-    <t>Westerpark</t>
-  </si>
-  <si>
-    <t>Centrum-Oost</t>
-  </si>
-  <si>
-    <t>Watergraafsmeer</t>
-  </si>
-  <si>
     <t>Uitgeest</t>
   </si>
   <si>
@@ -753,9 +651,6 @@
     <t>Ouder-Amstel</t>
   </si>
   <si>
-    <t>Beemster</t>
-  </si>
-  <si>
     <t>Landsmeer</t>
   </si>
   <si>
@@ -768,17 +663,1070 @@
     <t>Laren</t>
   </si>
   <si>
-    <t>Centrum-West</t>
-  </si>
-  <si>
-    <t>Buitenveldert, Zuidas</t>
+    <t>c11_class_income_below_25th</t>
+  </si>
+  <si>
+    <t>c11_class_income_above_75th</t>
+  </si>
+  <si>
+    <t>c11_class_foreign_born_parents</t>
+  </si>
+  <si>
+    <t>c11_class_vmbo_gl_test</t>
+  </si>
+  <si>
+    <t>c11_class_havo_test</t>
+  </si>
+  <si>
+    <t>c11_class_vwo_test</t>
+  </si>
+  <si>
+    <t>c11_class_reading</t>
+  </si>
+  <si>
+    <t>c11_class_math</t>
+  </si>
+  <si>
+    <t>c11_class_size</t>
+  </si>
+  <si>
+    <t>c11_class_language</t>
+  </si>
+  <si>
+    <t>Classmates</t>
+  </si>
+  <si>
+    <t>Class Test Score Reading Comprehension Target Level</t>
+  </si>
+  <si>
+    <t>Class Low Income Parents</t>
+  </si>
+  <si>
+    <t>Class High Income Parents</t>
+  </si>
+  <si>
+    <t>Class Foreign Born Parents</t>
+  </si>
+  <si>
+    <t>Class Track Recommendation at Least Moderate Ability</t>
+  </si>
+  <si>
+    <t>Class Track Recommendation at Least High Ability</t>
+  </si>
+  <si>
+    <t>Class Track Recommendation Very High Ability</t>
+  </si>
+  <si>
+    <t>Class Test Score Mathematics Target Level</t>
+  </si>
+  <si>
+    <t>Class Test Score Grammar and Writing Target Level</t>
+  </si>
+  <si>
+    <t>Class Size</t>
+  </si>
+  <si>
+    <t>Aa en Hunze</t>
+  </si>
+  <si>
+    <t>Drenthe</t>
+  </si>
+  <si>
+    <t>Assen</t>
+  </si>
+  <si>
+    <t>Borger-Odoorn</t>
+  </si>
+  <si>
+    <t>Coevorden</t>
+  </si>
+  <si>
+    <t>Emmen</t>
+  </si>
+  <si>
+    <t>Hoogeveen</t>
+  </si>
+  <si>
+    <t>Meppel</t>
+  </si>
+  <si>
+    <t>Midden-Drenthe</t>
+  </si>
+  <si>
+    <t>Noordenveld</t>
+  </si>
+  <si>
+    <t>Tynaarlo</t>
+  </si>
+  <si>
+    <t>Westerveld</t>
+  </si>
+  <si>
+    <t>De Wolden</t>
+  </si>
+  <si>
+    <t>Flevoland</t>
+  </si>
+  <si>
+    <t>Dronten</t>
+  </si>
+  <si>
+    <t>Noordoostpolder</t>
+  </si>
+  <si>
+    <t>Urk</t>
+  </si>
+  <si>
+    <t>Zeewolde</t>
+  </si>
+  <si>
+    <t>Achtkarspelen</t>
+  </si>
+  <si>
+    <t>Fryslân</t>
+  </si>
+  <si>
+    <t>Ameland</t>
+  </si>
+  <si>
+    <t>Dantumadiel</t>
+  </si>
+  <si>
+    <t>De Fryske Marren</t>
+  </si>
+  <si>
+    <t>Harlingen</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Leeuwarden</t>
+  </si>
+  <si>
+    <t>Noardeast-Fryslân</t>
+  </si>
+  <si>
+    <t>Ooststellingwerf</t>
+  </si>
+  <si>
+    <t>Opsterland</t>
+  </si>
+  <si>
+    <t>Schiermonnikoog</t>
+  </si>
+  <si>
+    <t>Smallingerland</t>
+  </si>
+  <si>
+    <t>Súdwest-Fryslân</t>
+  </si>
+  <si>
+    <t>Terschelling</t>
+  </si>
+  <si>
+    <t>Tytsjerksteradiel</t>
+  </si>
+  <si>
+    <t>Vlieland</t>
+  </si>
+  <si>
+    <t>Waadhoeke</t>
+  </si>
+  <si>
+    <t>Weststellingwerf</t>
+  </si>
+  <si>
+    <t>Aalten</t>
+  </si>
+  <si>
+    <t>Gelderland</t>
+  </si>
+  <si>
+    <t>Apeldoorn</t>
+  </si>
+  <si>
+    <t>Arnhem</t>
+  </si>
+  <si>
+    <t>Barneveld</t>
+  </si>
+  <si>
+    <t>Berg en Dal</t>
+  </si>
+  <si>
+    <t>Berkelland</t>
+  </si>
+  <si>
+    <t>Beuningen</t>
+  </si>
+  <si>
+    <t>Bronckhorst</t>
+  </si>
+  <si>
+    <t>Brummen</t>
+  </si>
+  <si>
+    <t>Buren</t>
+  </si>
+  <si>
+    <t>Culemborg</t>
+  </si>
+  <si>
+    <t>Doesburg</t>
+  </si>
+  <si>
+    <t>Doetinchem</t>
+  </si>
+  <si>
+    <t>Druten</t>
+  </si>
+  <si>
+    <t>Duiven</t>
+  </si>
+  <si>
+    <t>Ede</t>
+  </si>
+  <si>
+    <t>Elburg</t>
+  </si>
+  <si>
+    <t>Epe</t>
+  </si>
+  <si>
+    <t>Ermelo</t>
+  </si>
+  <si>
+    <t>Harderwijk</t>
+  </si>
+  <si>
+    <t>Hattem</t>
+  </si>
+  <si>
+    <t>Heerde</t>
+  </si>
+  <si>
+    <t>Heumen</t>
+  </si>
+  <si>
+    <t>Lingewaard</t>
+  </si>
+  <si>
+    <t>Lochem</t>
+  </si>
+  <si>
+    <t>Maasdriel</t>
+  </si>
+  <si>
+    <t>Montferland</t>
+  </si>
+  <si>
+    <t>Neder-Betuwe</t>
+  </si>
+  <si>
+    <t>Nijkerk</t>
+  </si>
+  <si>
+    <t>Nijmegen</t>
+  </si>
+  <si>
+    <t>Nunspeet</t>
+  </si>
+  <si>
+    <t>Oldebroek</t>
+  </si>
+  <si>
+    <t>Oost Gelre</t>
+  </si>
+  <si>
+    <t>Oude IJsselstreek</t>
+  </si>
+  <si>
+    <t>Overbetuwe</t>
+  </si>
+  <si>
+    <t>Putten</t>
+  </si>
+  <si>
+    <t>Renkum</t>
+  </si>
+  <si>
+    <t>Rheden</t>
+  </si>
+  <si>
+    <t>Rozendaal</t>
+  </si>
+  <si>
+    <t>Scherpenzeel</t>
+  </si>
+  <si>
+    <t>Tiel</t>
+  </si>
+  <si>
+    <t>Voorst</t>
+  </si>
+  <si>
+    <t>Wageningen</t>
+  </si>
+  <si>
+    <t>West Betuwe</t>
+  </si>
+  <si>
+    <t>West Maas en Waal</t>
+  </si>
+  <si>
+    <t>Westervoort</t>
+  </si>
+  <si>
+    <t>Wijchen</t>
+  </si>
+  <si>
+    <t>Winterswijk</t>
+  </si>
+  <si>
+    <t>Zaltbommel</t>
+  </si>
+  <si>
+    <t>Zevenaar</t>
+  </si>
+  <si>
+    <t>Zutphen</t>
+  </si>
+  <si>
+    <t>Eemsdelta</t>
+  </si>
+  <si>
+    <t>Groningen</t>
+  </si>
+  <si>
+    <t>Het Hogeland</t>
+  </si>
+  <si>
+    <t>Midden-Groningen</t>
+  </si>
+  <si>
+    <t>Oldambt</t>
+  </si>
+  <si>
+    <t>Pekela</t>
+  </si>
+  <si>
+    <t>Stadskanaal</t>
+  </si>
+  <si>
+    <t>Veendam</t>
+  </si>
+  <si>
+    <t>Westerkwartier</t>
+  </si>
+  <si>
+    <t>Westerwolde</t>
+  </si>
+  <si>
+    <t>Beek</t>
+  </si>
+  <si>
+    <t>Limburg</t>
+  </si>
+  <si>
+    <t>Beekdaelen</t>
+  </si>
+  <si>
+    <t>Beesel</t>
+  </si>
+  <si>
+    <t>Bergen (L.)</t>
+  </si>
+  <si>
+    <t>Brunssum</t>
+  </si>
+  <si>
+    <t>Echt-Susteren</t>
+  </si>
+  <si>
+    <t>Eijsden-Margraten</t>
+  </si>
+  <si>
+    <t>Gennep</t>
+  </si>
+  <si>
+    <t>Gulpen-Wittem</t>
+  </si>
+  <si>
+    <t>Heerlen</t>
+  </si>
+  <si>
+    <t>Horst aan de Maas</t>
+  </si>
+  <si>
+    <t>Kerkrade</t>
+  </si>
+  <si>
+    <t>Landgraaf</t>
+  </si>
+  <si>
+    <t>Leudal</t>
+  </si>
+  <si>
+    <t>Maasgouw</t>
+  </si>
+  <si>
+    <t>Maastricht</t>
+  </si>
+  <si>
+    <t>Meerssen</t>
+  </si>
+  <si>
+    <t>Mook en Middelaar</t>
+  </si>
+  <si>
+    <t>Nederweert</t>
+  </si>
+  <si>
+    <t>Peel en Maas</t>
+  </si>
+  <si>
+    <t>Roerdalen</t>
+  </si>
+  <si>
+    <t>Roermond</t>
+  </si>
+  <si>
+    <t>Simpelveld</t>
+  </si>
+  <si>
+    <t>Sittard-Geleen</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Vaals</t>
+  </si>
+  <si>
+    <t>Valkenburg aan de Geul</t>
+  </si>
+  <si>
+    <t>Venlo</t>
+  </si>
+  <si>
+    <t>Venray</t>
+  </si>
+  <si>
+    <t>Voerendaal</t>
+  </si>
+  <si>
+    <t>Weert</t>
+  </si>
+  <si>
+    <t>Alphen-Chaam</t>
+  </si>
+  <si>
+    <t>Noord-Brabant</t>
+  </si>
+  <si>
+    <t>Altena</t>
+  </si>
+  <si>
+    <t>Asten</t>
+  </si>
+  <si>
+    <t>Baarle-Nassau</t>
+  </si>
+  <si>
+    <t>Bergeijk</t>
+  </si>
+  <si>
+    <t>Bergen op Zoom</t>
+  </si>
+  <si>
+    <t>Bernheze</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Bladel</t>
+  </si>
+  <si>
+    <t>Boekel</t>
+  </si>
+  <si>
+    <t>Boxtel</t>
+  </si>
+  <si>
+    <t>Breda</t>
+  </si>
+  <si>
+    <t>Cranendonck</t>
+  </si>
+  <si>
+    <t>Deurne</t>
+  </si>
+  <si>
+    <t>Dongen</t>
+  </si>
+  <si>
+    <t>Drimmelen</t>
+  </si>
+  <si>
+    <t>Eersel</t>
+  </si>
+  <si>
+    <t>Eindhoven</t>
+  </si>
+  <si>
+    <t>Etten-Leur</t>
+  </si>
+  <si>
+    <t>Geertruidenberg</t>
+  </si>
+  <si>
+    <t>Geldrop-Mierlo</t>
+  </si>
+  <si>
+    <t>Gemert-Bakel</t>
+  </si>
+  <si>
+    <t>Gilze en Rijen</t>
+  </si>
+  <si>
+    <t>Goirle</t>
+  </si>
+  <si>
+    <t>Halderberge</t>
+  </si>
+  <si>
+    <t>Heeze-Leende</t>
+  </si>
+  <si>
+    <t>Helmond</t>
+  </si>
+  <si>
+    <t>'s-Hertogenbosch</t>
+  </si>
+  <si>
+    <t>Heusden</t>
+  </si>
+  <si>
+    <t>Hilvarenbeek</t>
+  </si>
+  <si>
+    <t>Laarbeek</t>
+  </si>
+  <si>
+    <t>Land van Cuijk</t>
+  </si>
+  <si>
+    <t>Loon op Zand</t>
+  </si>
+  <si>
+    <t>Maashorst</t>
+  </si>
+  <si>
+    <t>Meierijstad</t>
+  </si>
+  <si>
+    <t>Moerdijk</t>
+  </si>
+  <si>
+    <t>Nuenen, Gerwen en Nederwetten</t>
+  </si>
+  <si>
+    <t>Oirschot</t>
+  </si>
+  <si>
+    <t>Oisterwijk</t>
+  </si>
+  <si>
+    <t>Oosterhout</t>
+  </si>
+  <si>
+    <t>Oss</t>
+  </si>
+  <si>
+    <t>Reusel-De Mierden</t>
+  </si>
+  <si>
+    <t>Roosendaal</t>
+  </si>
+  <si>
+    <t>Rucphen</t>
+  </si>
+  <si>
+    <t>Sint-Michielsgestel</t>
+  </si>
+  <si>
+    <t>Someren</t>
+  </si>
+  <si>
+    <t>Son en Breugel</t>
+  </si>
+  <si>
+    <t>Steenbergen</t>
+  </si>
+  <si>
+    <t>Tilburg</t>
+  </si>
+  <si>
+    <t>Valkenswaard</t>
+  </si>
+  <si>
+    <t>Veldhoven</t>
+  </si>
+  <si>
+    <t>Vught</t>
+  </si>
+  <si>
+    <t>Waalre</t>
+  </si>
+  <si>
+    <t>Waalwijk</t>
+  </si>
+  <si>
+    <t>Woensdrecht</t>
+  </si>
+  <si>
+    <t>Zundert</t>
+  </si>
+  <si>
+    <t>Noord-Holland</t>
+  </si>
+  <si>
+    <t>Alkmaar</t>
+  </si>
+  <si>
+    <t>Bergen (NH.)</t>
+  </si>
+  <si>
+    <t>Castricum</t>
+  </si>
+  <si>
+    <t>Dijk en Waard</t>
+  </si>
+  <si>
+    <t>Drechterland</t>
+  </si>
+  <si>
+    <t>Enkhuizen</t>
+  </si>
+  <si>
+    <t>Heiloo</t>
+  </si>
+  <si>
+    <t>Den Helder</t>
+  </si>
+  <si>
+    <t>Hollands Kroon</t>
+  </si>
+  <si>
+    <t>Hoorn</t>
+  </si>
+  <si>
+    <t>Koggenland</t>
+  </si>
+  <si>
+    <t>Medemblik</t>
+  </si>
+  <si>
+    <t>Opmeer</t>
+  </si>
+  <si>
+    <t>Schagen</t>
+  </si>
+  <si>
+    <t>Stede Broec</t>
+  </si>
+  <si>
+    <t>Texel</t>
+  </si>
+  <si>
+    <t>Almelo</t>
+  </si>
+  <si>
+    <t>Overijssel</t>
+  </si>
+  <si>
+    <t>Borne</t>
+  </si>
+  <si>
+    <t>Dalfsen</t>
+  </si>
+  <si>
+    <t>Deventer</t>
+  </si>
+  <si>
+    <t>Dinkelland</t>
+  </si>
+  <si>
+    <t>Enschede</t>
+  </si>
+  <si>
+    <t>Haaksbergen</t>
+  </si>
+  <si>
+    <t>Hardenberg</t>
+  </si>
+  <si>
+    <t>Hellendoorn</t>
+  </si>
+  <si>
+    <t>Hengelo</t>
+  </si>
+  <si>
+    <t>Hof van Twente</t>
+  </si>
+  <si>
+    <t>Kampen</t>
+  </si>
+  <si>
+    <t>Losser</t>
+  </si>
+  <si>
+    <t>Oldenzaal</t>
+  </si>
+  <si>
+    <t>Olst-Wijhe</t>
+  </si>
+  <si>
+    <t>Ommen</t>
+  </si>
+  <si>
+    <t>Raalte</t>
+  </si>
+  <si>
+    <t>Rijssen-Holten</t>
+  </si>
+  <si>
+    <t>Staphorst</t>
+  </si>
+  <si>
+    <t>Steenwijkerland</t>
+  </si>
+  <si>
+    <t>Tubbergen</t>
+  </si>
+  <si>
+    <t>Twenterand</t>
+  </si>
+  <si>
+    <t>Wierden</t>
+  </si>
+  <si>
+    <t>Zwartewaterland</t>
+  </si>
+  <si>
+    <t>Zwolle</t>
+  </si>
+  <si>
+    <t>Amersfoort</t>
+  </si>
+  <si>
+    <t>Utrecht</t>
+  </si>
+  <si>
+    <t>Baarn</t>
+  </si>
+  <si>
+    <t>De Bilt</t>
+  </si>
+  <si>
+    <t>Bunnik</t>
+  </si>
+  <si>
+    <t>Bunschoten</t>
+  </si>
+  <si>
+    <t>Eemnes</t>
+  </si>
+  <si>
+    <t>Houten</t>
+  </si>
+  <si>
+    <t>IJsselstein</t>
+  </si>
+  <si>
+    <t>Leusden</t>
+  </si>
+  <si>
+    <t>Lopik</t>
+  </si>
+  <si>
+    <t>Montfoort</t>
+  </si>
+  <si>
+    <t>Nieuwegein</t>
+  </si>
+  <si>
+    <t>Oudewater</t>
+  </si>
+  <si>
+    <t>Renswoude</t>
+  </si>
+  <si>
+    <t>Rhenen</t>
+  </si>
+  <si>
+    <t>De Ronde Venen</t>
+  </si>
+  <si>
+    <t>Soest</t>
+  </si>
+  <si>
+    <t>Stichtse Vecht</t>
+  </si>
+  <si>
+    <t>Utrechtse Heuvelrug</t>
+  </si>
+  <si>
+    <t>Veenendaal</t>
+  </si>
+  <si>
+    <t>Vijfheerenlanden</t>
+  </si>
+  <si>
+    <t>Wijk bij Duurstede</t>
+  </si>
+  <si>
+    <t>Woerden</t>
+  </si>
+  <si>
+    <t>Woudenberg</t>
+  </si>
+  <si>
+    <t>Zeist</t>
+  </si>
+  <si>
+    <t>Borsele</t>
+  </si>
+  <si>
+    <t>Zeeland</t>
+  </si>
+  <si>
+    <t>Goes</t>
+  </si>
+  <si>
+    <t>Hulst</t>
+  </si>
+  <si>
+    <t>Kapelle</t>
+  </si>
+  <si>
+    <t>Middelburg</t>
+  </si>
+  <si>
+    <t>Noord-Beveland</t>
+  </si>
+  <si>
+    <t>Reimerswaal</t>
+  </si>
+  <si>
+    <t>Schouwen-Duiveland</t>
+  </si>
+  <si>
+    <t>Sluis</t>
+  </si>
+  <si>
+    <t>Terneuzen</t>
+  </si>
+  <si>
+    <t>Tholen</t>
+  </si>
+  <si>
+    <t>Veere</t>
+  </si>
+  <si>
+    <t>Vlissingen</t>
+  </si>
+  <si>
+    <t>Alblasserdam</t>
+  </si>
+  <si>
+    <t>Zuid-Holland</t>
+  </si>
+  <si>
+    <t>Albrandswaard</t>
+  </si>
+  <si>
+    <t>Alphen aan den Rijn</t>
+  </si>
+  <si>
+    <t>Barendrecht</t>
+  </si>
+  <si>
+    <t>Bodegraven-Reeuwijk</t>
+  </si>
+  <si>
+    <t>Capelle aan den IJssel</t>
+  </si>
+  <si>
+    <t>Delft</t>
+  </si>
+  <si>
+    <t>Dordrecht</t>
+  </si>
+  <si>
+    <t>Goeree-Overflakkee</t>
+  </si>
+  <si>
+    <t>Gorinchem</t>
+  </si>
+  <si>
+    <t>Gouda</t>
+  </si>
+  <si>
+    <t>'s-Gravenhage</t>
+  </si>
+  <si>
+    <t>Hardinxveld-Giessendam</t>
+  </si>
+  <si>
+    <t>Hendrik-Ido-Ambacht</t>
+  </si>
+  <si>
+    <t>Hillegom</t>
+  </si>
+  <si>
+    <t>Hoeksche Waard</t>
+  </si>
+  <si>
+    <t>Kaag en Braassem</t>
+  </si>
+  <si>
+    <t>Katwijk</t>
+  </si>
+  <si>
+    <t>Krimpen aan den IJssel</t>
+  </si>
+  <si>
+    <t>Krimpenerwaard</t>
+  </si>
+  <si>
+    <t>Lansingerland</t>
+  </si>
+  <si>
+    <t>Leiden</t>
+  </si>
+  <si>
+    <t>Leiderdorp</t>
+  </si>
+  <si>
+    <t>Leidschendam-Voorburg</t>
+  </si>
+  <si>
+    <t>Lisse</t>
+  </si>
+  <si>
+    <t>Maassluis</t>
+  </si>
+  <si>
+    <t>Midden-Delfland</t>
+  </si>
+  <si>
+    <t>Molenlanden</t>
+  </si>
+  <si>
+    <t>Nieuwkoop</t>
+  </si>
+  <si>
+    <t>Nissewaard</t>
+  </si>
+  <si>
+    <t>Noordwijk</t>
+  </si>
+  <si>
+    <t>Oegstgeest</t>
+  </si>
+  <si>
+    <t>Papendrecht</t>
+  </si>
+  <si>
+    <t>Pijnacker-Nootdorp</t>
+  </si>
+  <si>
+    <t>Ridderkerk</t>
+  </si>
+  <si>
+    <t>Rijswijk</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>Schiedam</t>
+  </si>
+  <si>
+    <t>Sliedrecht</t>
+  </si>
+  <si>
+    <t>Teylingen</t>
+  </si>
+  <si>
+    <t>Vlaardingen</t>
+  </si>
+  <si>
+    <t>Voorne aan Zee</t>
+  </si>
+  <si>
+    <t>Voorschoten</t>
+  </si>
+  <si>
+    <t>Waddinxveen</t>
+  </si>
+  <si>
+    <t>Wassenaar</t>
+  </si>
+  <si>
+    <t>Westland</t>
+  </si>
+  <si>
+    <t>Zoetermeer</t>
+  </si>
+  <si>
+    <t>Zoeterwoude</t>
+  </si>
+  <si>
+    <t>Zuidplas</t>
+  </si>
+  <si>
+    <t>Zwijndrecht</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 3</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>Test 5</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>Test 7</t>
+  </si>
+  <si>
+    <t>Test 8</t>
+  </si>
+  <si>
+    <t>Test 9</t>
+  </si>
+  <si>
+    <t>Test 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -817,6 +1765,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -857,7 +1817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -885,6 +1845,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,16 +2228,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="170" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="128.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
     <col min="5" max="5" width="113.6640625" style="1" customWidth="1"/>
@@ -1788,19 +2749,19 @@
         <v>6</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>85</v>
+        <v>207</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>28</v>
+        <v>550</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1808,19 +2769,19 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>88</v>
+        <v>208</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>28</v>
+        <v>551</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1828,19 +2789,19 @@
         <v>6</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>91</v>
+        <v>209</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>28</v>
+        <v>552</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1848,19 +2809,19 @@
         <v>6</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>94</v>
+        <v>222</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>95</v>
+      <c r="E29" s="4" t="s">
+        <v>553</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1868,19 +2829,19 @@
         <v>6</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>97</v>
+        <v>211</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>98</v>
+        <v>554</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>34</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1888,179 +2849,179 @@
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>100</v>
+        <v>212</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>101</v>
+        <v>555</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>102</v>
+        <v>213</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>104</v>
+      <c r="E32" s="4" t="s">
+        <v>556</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>106</v>
+        <v>214</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>107</v>
+        <v>557</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
-        <v>22</v>
+      <c r="A34" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>109</v>
+        <v>216</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>111</v>
+        <v>52</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>558</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>113</v>
+        <v>215</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>114</v>
+        <v>52</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>559</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>116</v>
+      <c r="B36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>37</v>
+        <v>86</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>120</v>
+        <v>6</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>37</v>
+        <v>89</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>123</v>
+      <c r="B38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>126</v>
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>127</v>
+        <v>52</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2068,19 +3029,19 @@
         <v>6</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>129</v>
+        <v>96</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>130</v>
+        <v>52</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2088,76 +3049,76 @@
         <v>6</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>132</v>
+        <v>99</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>133</v>
+        <v>52</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>135</v>
+        <v>102</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>136</v>
+        <v>52</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>138</v>
+        <v>105</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>141</v>
+        <v>108</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>37</v>
@@ -2168,16 +3129,16 @@
         <v>22</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>144</v>
+        <v>112</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>145</v>
+      <c r="E45" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>37</v>
@@ -2185,19 +3146,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>147</v>
+        <v>6</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>148</v>
+      <c r="E46" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>37</v>
@@ -2205,19 +3166,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>150</v>
+        <v>118</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>151</v>
+      <c r="E47" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>37</v>
@@ -2227,37 +3188,37 @@
       <c r="A48" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>153</v>
+      <c r="B48" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>154</v>
+      <c r="E48" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>155</v>
+      <c r="B49" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>157</v>
+      <c r="E49" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>37</v>
@@ -2265,79 +3226,79 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>161</v>
+        <v>128</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>166</v>
+        <v>134</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>167</v>
+        <v>6</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>170</v>
+        <v>137</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>37</v>
@@ -2345,55 +3306,256 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D54" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>172</v>
+        <v>140</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>160</v>
+        <v>143</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C61" s="11"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="13"/>
+      <c r="A61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C62" s="11"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="11"/>
+      <c r="A62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="11"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -2401,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B343"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2414,507 +3576,2747 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B93" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="B94" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B97" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B98" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B122" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="B137" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="B138" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="B139" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B141" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B142" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B146" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B151" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B152" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B153" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B158" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B160" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B161" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B168" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B173" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B174" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B175" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B184" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B189" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="15" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B191" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B192" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B194" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B195" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B197" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B198" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B199" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B200" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="15" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B201" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="B5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B202" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B209" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B216" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B217" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B218" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B219" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B220" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B221" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B224" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B226" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B227" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>194</v>
-      </c>
-      <c r="B16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>197</v>
-      </c>
-      <c r="B19" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>198</v>
-      </c>
-      <c r="B20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="B228" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="B23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>204</v>
-      </c>
-      <c r="B26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B28" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>210</v>
-      </c>
-      <c r="B31" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>211</v>
-      </c>
-      <c r="B32" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B33" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>213</v>
-      </c>
-      <c r="B34" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B35" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>216</v>
-      </c>
-      <c r="B36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>218</v>
-      </c>
-      <c r="B38" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B40" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>221</v>
-      </c>
-      <c r="B41" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>222</v>
-      </c>
-      <c r="B42" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>223</v>
-      </c>
-      <c r="B43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>224</v>
-      </c>
-      <c r="B44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>226</v>
-      </c>
-      <c r="B46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>227</v>
-      </c>
-      <c r="B47" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>228</v>
-      </c>
-      <c r="B48" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>229</v>
-      </c>
-      <c r="B49" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>230</v>
-      </c>
-      <c r="B50" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B51" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>232</v>
-      </c>
-      <c r="B52" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>234</v>
-      </c>
-      <c r="B54" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>235</v>
-      </c>
-      <c r="B55" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>236</v>
-      </c>
-      <c r="B56" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>237</v>
-      </c>
-      <c r="B57" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>238</v>
-      </c>
-      <c r="B58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>240</v>
-      </c>
-      <c r="B60" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>241</v>
-      </c>
-      <c r="B61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>242</v>
-      </c>
-      <c r="B62" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>243</v>
-      </c>
-      <c r="B63" t="s">
-        <v>214</v>
+      <c r="B229" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="B238" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="B240" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="B241" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B242" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="B244" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="B246" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="B247" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="B248" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="B249" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="B250" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="15" t="s">
+        <v>455</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="B252" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B253" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="B254" s="15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="B255" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="B256" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B257" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B258" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="B259" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B260" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B261" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B262" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B263" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B264" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B265" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B266" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B267" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B268" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="B273" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B276" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B277" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B278" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B279" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="B285" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="B286" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="B288" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="B291" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="B292" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B293" s="15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B294" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="B295" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="15" t="s">
+        <v>502</v>
+      </c>
+      <c r="B296" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B297" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="15" t="s">
+        <v>504</v>
+      </c>
+      <c r="B298" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B299" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="15" t="s">
+        <v>506</v>
+      </c>
+      <c r="B300" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="B301" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="B302" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B303" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="15" t="s">
+        <v>510</v>
+      </c>
+      <c r="B304" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="B305" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B306" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="B307" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="B308" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B309" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B310" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="B311" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="B312" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="B313" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="B314" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B315" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="B316" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B317" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="B318" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="B319" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="B320" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="B321" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="B322" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B323" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="B324" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="B325" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="B326" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="B327" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="15" t="s">
+        <v>534</v>
+      </c>
+      <c r="B328" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B329" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="B330" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="B331" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="B332" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="B333" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="B334" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="B335" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B336" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="B337" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="B338" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="B339" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="B340" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B341" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="B342" s="15" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="B343" s="15" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
